--- a/MJI/MJI_additions_for_LR.xlsx
+++ b/MJI/MJI_additions_for_LR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentfintoni/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentfintoni/Desktop/University/COURSE DOCS/THESIS/Internship/musow-pipeline/MJI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD9E95-3941-374D-83A5-2ED80445524E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FF9B9-5036-CE4C-B392-C7E2D9B221FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{D65556FE-AC5D-F641-91EB-56DE20064332}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="439">
   <si>
     <t>Title</t>
   </si>
@@ -1294,6 +1294,54 @@
   </si>
   <si>
     <t>The Dancehall Archive &amp; Research Initiative</t>
+  </si>
+  <si>
+    <t>everynoise</t>
+  </si>
+  <si>
+    <t>https://everynoise.com/</t>
+  </si>
+  <si>
+    <t>Every Noise at Once is an ongoing attempt at an algorithmically-generated, readability-adjusted scatter-plot of the musical genre-space, based on data tracked and analyzed for 5,822 genre-shaped distinctions by Spotify as of 2022-03-28. The calibration is fuzzy, but in general down is more organic, up is more mechanical and electric; left is denser and more atmospheric, right is spikier and bouncier.</t>
+  </si>
+  <si>
+    <t>https://cylinders.library.ucsb.edu/homewax.php</t>
+  </si>
+  <si>
+    <t>Vernacular Wax Cylinder Recordings at the UCSB Library</t>
+  </si>
+  <si>
+    <t>The UCSB Library’s Department of Special Collections houses more than 650 vernacular wax cylinder recordings, or home wax recordings, from the 1890s through the 1920s that capture the early spirit of the public’s interaction with recording technology. In March 2015 the collection was added to the 2014 National Recording Registry at the Library of Congress and may be the world’s largest and most diverse collection of early vernacular sound recordings. The bulk of the collection is from the David Giovannoni Collection of Home Cylinder Recordings at the University of California Santa Barbara. It offers a unique opportunity to time-travel through sound—to eavesdrop on the private lives of our forebears. We hope that making the collection available online for all to hear will lead to a new appreciation and understanding of this rich but overlooked part of our heritage of historic recorded sound. The home recordings found in this collection weren’t always literally made in people’s homes. Instead, they’re the audio equivalent of what Richard Chalfen calls the “home-mode of visual communication”1—which is to say, they involve the use of media for intimate, private, and personal purposes rather than public, impersonal ones. They can be distinguished both from commercial recordings made by the recording industry for popular exhibition and sale and from field recordings made by collectors for institutional preservation and academic study. For many years, home recordings weren’t valued as highly as commercial or field recordings. Even today, some phonograph enthusiasts are all-too-ready to shave home-recorded cylinders from a century or more ago to reuse the blanks for making new recordings. To some extent, then, this represents a longterm, concerted rescue operation. Its nucleus was assembled in the 1970s and 1980s by Don Hill, one of the first people to recognize the value of home recordings as anthropological artifacts. David Giovannoni acquired Hill’s collection in the mid-1990s and added steadily to it up until the time of its acquisition by USCB in 2013. Home, commercial, and field recordings can all feature vernacular performance traditions, oral histories, and the like, but commercial and field recordings have generally been initiated by outsiders for their own purposes and shaped with those purposes in mind. The recording industry has aimed to capture material that will sell, while fieldworkers have sought to document specific kinds of material that are of academic or artistic interest to them. By contrast, home recordings are made by and among groups of family and friends for their own use and enjoyment. The act of recording doesn’t intrude on the vernacular performance context as it does in the other cases, but instead heightens and extends it. We get to hear what ordinary people chose to record, and how they chose to adapt it to the medium, when they were in charge of the equipment and weren’t being told what to do by someone else.</t>
+  </si>
+  <si>
+    <t>Timeline of African American Music</t>
+  </si>
+  <si>
+    <t>https://timeline.carnegiehall.org/timeline</t>
+  </si>
+  <si>
+    <t>The Timeline of African American Music represents decades of scholarship conducted and led by Dr. Portia K. Maultsby, a pioneer in the study of African American music, as well as the contributions of numerous scholars. From the earliest folk traditions to present-day popular music, the timeline is a detailed view of the evolution of African American musical genres that span the past 400 years. This celebration of African American musical traditions reveals the unique characteristics of each genre and style, while also offering in-depth studies of pioneering musicians who created some of America’s most timeless artistic expressions. In 2009, soprano Jessye Norman brought Dr. Maultsby and her work to Carnegie Hall as part of the festival HONOR! A Celebration of the African American Cultural Legacy. As a cornerstone of the festival, Miss Norman wanted educational initiatives to expand the audience’s journey of discovery, including the first interactive version of the timeline. After the festival, the timeline became an integral part of Carnegie Hall’s online educational resources and continued to serve music lovers, educators, and students around the world for more than a decade. Through generous support from the NEH and NEA, and in collaboration with Synoptic Office, the timeline has been reimagined and updated to serve a new generation of audiences. Visitors to the timeline can expand their knowledge through multimedia stories, recordings of legendary musicians, and rarely seen historical images from Carnegie Hall’s Rose Archives. Closely connected to Carnegie Hall, this interactive presentation of the timeline examines seminal African American musical, cultural, and political events that have taken place at the Hall throughout the past 130 years. The timeline is a superb historical study and a celebration of living musical traditions for all to explore.</t>
+  </si>
+  <si>
+    <t>Strachwitz Frontera Collection of Mexican and Mexican American Recordings</t>
+  </si>
+  <si>
+    <t>The Arhoolie Foundation's Strachwitz Frontera Collection of Mexican and Mexican American Recordings is the largest repository of these commercially produced vernacular recordings in existence. The nearly 160,000 recordings in the collection were made primarily in the United States and Mexico and were issued on 78 rpm, 45 rpm, and 33⅓ rpm (long-playing, or LP) phonograph records and cassette and reel-to-reel tapes. The earliest recording was made in 1908, and the latest recordings were released in the 1990s. These performances are divided into three sections, roughly by era. Because of the depth and breadth of each section, and because many of the recordings are irreplaceable, the Strachwitz Frontera Collection is unique. The early-twentieth-century section includes approximately 35,000 individual songs recorded on 17,000 two-sided 78 rpm discs. These rare and very fragile records were released between 1905 and 1955. Many types of popular songs are represented in the performances, which include the first recordings of corridos (narrative ballads on topics of the day), canciones, boleros, rancheras, and sones. This section also contains many types of instrumental music, including the first recordings of norteño and conjunto music. The artists who made these records helped propagate and popularize a number of traditional regional styles, such as the Tejano music of South Texas, providing the foundation for Latino music today. In addition, this section includes spoken performances such as patriotic speeches and comedy skits. Many of the recordings are one of a kind because the companies that made them no longer exist or, if the companies do exist, the masters were lost or destroyed. The late-twentieth-century section contains approximately 56,000 individual songs from 45 rpm recordings that date from around 1955 to the 1990s. These include recordings produced by a wide range of small regional firms that were created to serve the musical interests of the growing immigrant population in the United States, especially along the U.S.-Mexico border. The last section of the collection includes over 62,000 individual songs from 33⅓ rpm phonograph records and cassette tapes also from 1955 to 1990. These songs demonstrate the continuity of traditional styles into contemporary times. Also in the collection are rare reel-to-reel master tapes whose recording dates span the end of the 78 rpm era through the LP era.</t>
+  </si>
+  <si>
+    <t>https://frontera.library.ucla.edu/</t>
+  </si>
+  <si>
+    <t>https://sfdps.org/</t>
+  </si>
+  <si>
+    <t>The mission of the San Francisco Disco Preservation Society is to collect, restore, digitize, preserve, and present historic audio and video recordings pertaining to DJ and nightclub history in San Francisco and internationally, as well as educate, inform, and entertain the public and future generations through its archives, public events, screenings, and online access to its resources.</t>
+  </si>
+  <si>
+    <t>San Francisco Disco Preservation Society</t>
+  </si>
+  <si>
+    <t>Nga Taonga Sound &amp; Vision is a charitable trust. We care for an ever-growing collection of films, radio, television, sound recordings, props and documents spanning 120 years of Aotearoa New Zealand’s sound and moving image history. We are committed to the principles of Te Tiriti O Waitangi. We actively develop relationships with whanau, hapu, iwi and Maori organisations to ensure appropriate long-term care of and access to sound and moving image taonga.</t>
   </si>
 </sst>
 </file>
@@ -1656,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BB0330-E500-7449-A9DD-80E03C8E4A4C}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3213,6 +3261,72 @@
       </c>
       <c r="C141" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" t="s">
+        <v>425</v>
+      </c>
+      <c r="C142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>427</v>
+      </c>
+      <c r="B143" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" t="s">
+        <v>431</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>326</v>
+      </c>
+      <c r="B145" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>437</v>
+      </c>
+      <c r="B147" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3254,6 +3368,9 @@
     <hyperlink ref="C65" r:id="rId35" xr:uid="{1F50CB51-1021-5149-A22B-3FCB8EF015D9}"/>
     <hyperlink ref="C68" r:id="rId36" xr:uid="{B3F84AF2-6B0D-924D-B094-4FB52F68B0FA}"/>
     <hyperlink ref="C69" r:id="rId37" xr:uid="{271FE2DD-B7F3-9F44-8880-0DE94E668BF4}"/>
+    <hyperlink ref="C144" r:id="rId38" xr:uid="{5720EABE-2649-3840-A070-B5F1E5823B73}"/>
+    <hyperlink ref="C146" r:id="rId39" xr:uid="{E1518097-D6A5-E042-BD8F-788A8176E995}"/>
+    <hyperlink ref="C147" r:id="rId40" xr:uid="{10CD727B-7147-9E46-8141-B3FAF91B6FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
